--- a/create_cli/create_metric.xlsx
+++ b/create_cli/create_metric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanfeuling/Desktop/all/github/lightup/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE02B07-4118-DC49-A04B-5B3E6DFA4D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EEE75E-EA9B-4B46-9CA5-80334D97A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{98D9A8D5-0282-E14B-8B0D-1688778AF789}"/>
+    <workbookView xWindow="17680" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{98D9A8D5-0282-E14B-8B0D-1688778AF789}"/>
   </bookViews>
   <sheets>
     <sheet name="METRICS" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>WORKSPACE</t>
   </si>
@@ -56,16 +56,22 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>workspace_name</t>
-  </si>
-  <si>
-    <t>datasource_name</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
-    <t>column_name</t>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Databricks</t>
+  </si>
+  <si>
+    <t>column_change</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C4C9F6-6075-C44F-A196-60134C1A9A7D}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,9 +452,11 @@
     <col min="3" max="3" width="58.5" customWidth="1"/>
     <col min="4" max="4" width="79.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,23 +472,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
